--- a/medicine/Soins infirmiers et profession infirmière/1880_en_santé_et_médecine/1880_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1880_en_santé_et_médecine/1880_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1880_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1880_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1880 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1880_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1880_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 - 11 septembre : congrès de Milan, deuxième congrès international pour l’amélioration du sort des sourds-muets[1].
-23 novembre : Charles Louis Alphonse Laveran décrit l’Hématozoaire du paludisme qu'il a observé le 6 novembre dans une communication lue à l'Académie de médecine[2].
-L’obstétricien Stéphane Tarnier met au point une couveuse, inspiré par un appareil conçu par Odile Martin au Jardin d'acclimatation à Paris pour l'éclosion artificielle des poulets[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 - 11 septembre : congrès de Milan, deuxième congrès international pour l’amélioration du sort des sourds-muets.
+23 novembre : Charles Louis Alphonse Laveran décrit l’Hématozoaire du paludisme qu'il a observé le 6 novembre dans une communication lue à l'Académie de médecine.
+L’obstétricien Stéphane Tarnier met au point une couveuse, inspiré par un appareil conçu par Odile Martin au Jardin d'acclimatation à Paris pour l'éclosion artificielle des poulets.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1880_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1880_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hippolyte Bernheim (1840-1919) : Suggestive Therapeutics[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hippolyte Bernheim (1840-1919) : Suggestive Therapeutics.
 Désiré-Magloire Bourneville, Paul Regnard, Jean-Martin Charcot et Édouard Delessert : Iconographie photographique de la Salpêtrière, Service de M. Charcot.  3 vols. Paris: Progrès Médical, 1877–80.Le neurologue Jean-Martin Charcot utilise pendant plusieurs années la photographie pour étudier ses patients de la Salpêtrière. Il sera l’animateur des célèbres « leçons du mardi ».
 Moritz Kaposi : Pathologie und Therapie der Hautkrankheiten (« Pathologie et thérapie des maladies de peau »).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1880_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1880_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1880_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1880_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thomas Staughton Savage (né en 1804), médecin et missionnaire protestant américain.</t>
         </is>
